--- a/biology/Botanique/Lilium_formosanum/Lilium_formosanum.xlsx
+++ b/biology/Botanique/Lilium_formosanum/Lilium_formosanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lys de Formose, Lys de Taïwan
-Lilium formosanum, le Lys de Formose ou Lys de Taïwan (chinois traditionnel : 台灣百合 ; chinois simplifié : 台湾百合 ; pinyin : Táiwān bǎihé), est une espèce de plantes de la famille des Liliaceae. À l'origine endémique de Taïwan[1],[2], cette plante a été introduite dans d'autres régions du monde et cultivée pour ses grandes fleurs aux tépales recourbés ou en trompette[3]. Ses bulbes sont comestibles[4]. 
+Lilium formosanum, le Lys de Formose ou Lys de Taïwan (chinois traditionnel : 台灣百合 ; chinois simplifié : 台湾百合 ; pinyin : Táiwān bǎihé), est une espèce de plantes de la famille des Liliaceae. À l'origine endémique de Taïwan cette plante a été introduite dans d'autres régions du monde et cultivée pour ses grandes fleurs aux tépales recourbés ou en trompette. Ses bulbes sont comestibles. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine endémique de Taïwan, Lilium formosanum a été introduite dans d'autres régions : Japon, Australie, Nouvelle-Zélande, Afrique du Sud, Tanzanie, république démocratique du Congo, Kenya, Brésil, États-Unis[2]…
-Lilium zairii, une espèce découverte en république démocratique du Congo, s'est révélée être en fait une forme sauvage de Lilium formosanum qui se serait échappée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine endémique de Taïwan, Lilium formosanum a été introduite dans d'autres régions : Japon, Australie, Nouvelle-Zélande, Afrique du Sud, Tanzanie, république démocratique du Congo, Kenya, Brésil, États-Unis…
+Lilium zairii, une espèce découverte en république démocratique du Congo, s'est révélée être en fait une forme sauvage de Lilium formosanum qui se serait échappée.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fleur a été le symbole du « Mouvement étudiant des lys sauvages » en 1990, qui fut un tournant majeur dans la démocratisation de Taïwan.
 </t>
@@ -575,10 +591,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lilium formosanum A.Wallace[6].
-Lilium formosanum a pour synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Lilium formosanum A.Wallace.
+Lilium formosanum a pour synonymes :
 Lilium formosanum var. formosanum
 Lilium formosanum var. microphyllum T.S.Liu &amp; S.S.Ying
 Lilium formosanum var. pricei Stoker
@@ -586,10 +604,44 @@
 Lilium philippinense subsp. formosanum (Wallace) E.H.Wilson
 Lilium philippinense var. formosanum (Wallace) E.H.Wilson
 Lilium philippinense var. formosanum Grove
-Lilium zairei Mynett &amp; Mackiewicz
-Noms vernaculaires
-En taïwanais, la plante est connue sous divers noms vernaculaires, tels que « lys sauvage » (野百合 ou 高砂百合), « fleur-trompette » (喇叭花), ou « ail de montagne » (山蒜頭, 山石蒜, ou 山蒜瓣), son bulbe étant comestible[4].
-Elle est appelée « bariangalay » par les Rukai, qui en font des parures pour certaines cérémonies[7].
+Lilium zairei Mynett &amp; Mackiewicz</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lilium_formosanum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lilium_formosanum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En taïwanais, la plante est connue sous divers noms vernaculaires, tels que « lys sauvage » (野百合 ou 高砂百合), « fleur-trompette » (喇叭花), ou « ail de montagne » (山蒜頭, 山石蒜, ou 山蒜瓣), son bulbe étant comestible.
+Elle est appelée « bariangalay » par les Rukai, qui en font des parures pour certaines cérémonies.
 </t>
         </is>
       </c>
